--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,14 +755,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 13760-2022</t>
+          <t>A 51481-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44649</v>
+        <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,28 +774,23 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -804,135 +799,140 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 13760-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Strutbräken</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 51481-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45603</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1419,14 +1419,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 23609-2022</t>
+          <t>A 69966-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44721</v>
+        <v>44533</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1476,14 +1476,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 69966-2021</t>
+          <t>A 23609-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44533</v>
+        <v>44721</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>44238</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44480</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44756</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44733</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44249</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44505</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44582</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45244</v>
+        <v>45537</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2314,14 +2314,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2376,14 +2376,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45747</v>
+        <v>44599</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2433,14 +2433,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45537</v>
+        <v>44840</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2452,13 +2452,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2495,14 +2490,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44916</v>
+        <v>45373</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2514,13 +2509,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2557,14 +2547,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7127-2021</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44238</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,13 +2566,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2619,14 +2604,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45979</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2640,11 +2625,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2681,14 +2666,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45370</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2701,7 +2686,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2738,14 +2723,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45979</v>
+        <v>45019</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2759,11 +2744,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2785,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45979</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2819,13 +2804,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2862,14 +2842,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45979</v>
+        <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2881,13 +2861,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2924,14 +2899,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45979</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2945,11 +2920,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2986,14 +2961,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3005,13 +2980,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3048,14 +3018,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45933</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3067,13 +3037,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3110,14 +3075,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 7127-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45537</v>
+        <v>44238</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3131,11 +3096,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3172,14 +3137,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45537</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3191,13 +3156,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>10.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3234,14 +3194,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>44889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3253,8 +3213,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3291,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3310,8 +3275,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3348,14 +3318,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45373</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3367,8 +3337,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3405,14 +3380,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45537</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3426,11 +3401,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3467,14 +3442,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45628</v>
+        <v>45537</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3488,11 +3463,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3529,14 +3504,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,8 +3523,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3586,14 +3566,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,8 +3585,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3643,14 +3628,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44599</v>
+        <v>45979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3664,11 +3649,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3705,14 +3690,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3726,11 +3711,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3767,14 +3752,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44916</v>
+        <v>45979</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3792,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3829,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45933</v>
+        <v>45978</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3849,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3886,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45007</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3911,7 +3896,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3948,14 +3933,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45027</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3973,7 +3958,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4010,14 +3995,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45344</v>
+        <v>45373</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4029,8 +4014,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4067,14 +4057,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44599</v>
+        <v>44756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4087,7 +4077,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4124,14 +4114,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4143,13 +4133,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4186,14 +4171,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>45527</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4205,13 +4190,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4248,14 +4228,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4268,7 +4248,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4305,14 +4285,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45978</v>
+        <v>45747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4325,7 +4305,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4362,14 +4342,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>44916</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,8 +4361,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>10.1</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4419,14 +4404,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4438,8 +4423,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4476,14 +4466,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>45537</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4495,8 +4485,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4533,14 +4528,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44840</v>
+        <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4552,8 +4547,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4590,14 +4590,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45280</v>
+        <v>44916</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4609,8 +4609,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4647,14 +4652,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44889</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4666,13 +4671,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4709,14 +4709,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44285</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4766,14 +4766,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>45344</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4823,14 +4823,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44680</v>
+        <v>45370</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4880,14 +4880,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45016</v>
+        <v>45027</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4942,14 +4942,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45537</v>
+        <v>45373</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,11 +4963,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5004,14 +5004,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45007</v>
+        <v>45373</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5023,13 +5023,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5066,14 +5061,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45373</v>
+        <v>45370</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5085,13 +5080,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5128,14 +5118,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45373</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5147,13 +5137,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5190,14 +5175,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45373</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5210,7 +5195,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5247,14 +5232,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44937</v>
+        <v>45628</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5266,8 +5251,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5304,14 +5294,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45019</v>
+        <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5323,13 +5313,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5366,14 +5351,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45537</v>
+        <v>45016</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5387,11 +5372,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5428,14 +5413,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45370</v>
+        <v>45244</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5447,8 +5432,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>9.5</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5485,14 +5475,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44756</v>
+        <v>45537</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5504,8 +5494,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5542,14 +5537,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45527</v>
+        <v>44285</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5562,7 +5557,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5599,14 +5594,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45593</v>
+        <v>45007</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5618,8 +5613,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5656,14 +5656,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45527</v>
+        <v>44937</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5713,14 +5713,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5770,14 +5770,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>45527</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44649</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44533</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44721</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44238</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44480</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44756</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44733</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44249</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44505</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44582</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>45537</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45007</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44599</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44840</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45373</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>45832.6597337963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45925.65525462963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44840.4959375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>45019</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>45379.46974537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>45931.55524305555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45835.58582175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45933</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44238</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45645.43471064815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45968.65879629629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>45968.64399305556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45537</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>45537</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>45979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45979</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>45978</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>45988.48501157408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45988.61856481482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45373</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>46041.82646990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45527</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>46041.87569444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44916</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45537</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44916</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>45553.40293981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>44937.6478587963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45344</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>45370</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>45027</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45373</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45373</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45370</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>45763.45225694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>45736.93336805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45628</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45016</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45244</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45537</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>44285</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45007</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44937</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>45527</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44649</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44533</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44721</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44238</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44480</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44756</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44733</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44249</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44505</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44582</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>45537</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45007</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44599</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44840</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45373</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>45832.6597337963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45925.65525462963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44840.4959375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>45019</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>45379.46974537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>45931.55524305555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45835.58582175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45933</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44238</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45645.43471064815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45968.65879629629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>45968.64399305556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45537</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>45537</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>45979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45979</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>45978</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>45988.48501157408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45988.61856481482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45373</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>46041.82646990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45527</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>46041.87569444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44916</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45537</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44599</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44916</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>45553.40293981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>44937.6478587963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45344</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>45370</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>45027</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45373</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45373</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45370</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>45763.45225694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>45736.93336805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45628</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45016</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45244</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>45537</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>44285</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>45007</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44937</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>45527</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,14 +755,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 51481-2024</t>
+          <t>A 13760-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45603</v>
+        <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,23 +774,28 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -799,140 +804,135 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Strutbräken</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 51481-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 13760-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Strutbräken</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1419,14 +1419,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 69966-2021</t>
+          <t>A 23609-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44533</v>
+        <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1476,14 +1476,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23609-2022</t>
+          <t>A 69966-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44721</v>
+        <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>44238</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44480</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44756</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44733</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44249</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44505</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44582</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45537</v>
+        <v>45370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2271,13 +2271,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2314,14 +2309,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 7127-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45007</v>
+        <v>44238</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,11 +2330,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2376,14 +2371,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44599</v>
+        <v>45537</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2395,8 +2390,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2433,14 +2433,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44840</v>
+        <v>45537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2452,8 +2452,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2490,14 +2495,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45373</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2510,7 +2515,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2547,14 +2552,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45628</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2566,8 +2571,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2604,14 +2614,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>44599</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2629,7 +2639,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2666,14 +2676,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>44916</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2685,8 +2695,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2723,14 +2738,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45019</v>
+        <v>45007</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2763,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2785,14 +2800,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45027</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,8 +2819,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2842,14 +2862,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44680</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2882,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.7</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2899,14 +2919,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45344</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,13 +2938,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2968,7 +2983,7 @@
         <v>45835.58582175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3018,14 +3033,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45933</v>
+        <v>44599</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3038,7 +3053,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3075,14 +3090,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7127-2021</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44238</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3096,11 +3111,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3137,14 +3152,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3156,8 +3171,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>10.1</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3194,14 +3214,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44889</v>
+        <v>45244</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3215,7 +3235,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3256,14 +3276,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>45007</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3281,7 +3301,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3318,14 +3338,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45933</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3337,13 +3357,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3380,14 +3395,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45537</v>
+        <v>45747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3399,13 +3414,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3442,14 +3452,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3467,7 +3477,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3504,14 +3514,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45979</v>
+        <v>44916</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3529,7 +3539,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3566,14 +3576,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45979</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3585,13 +3595,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3628,14 +3633,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45979</v>
+        <v>45373</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3647,13 +3652,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3690,14 +3690,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45979</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3711,11 +3711,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3752,14 +3752,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45979</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3773,11 +3773,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45978</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45978</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,13 +3890,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3933,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45979</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3954,11 +3949,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3995,14 +3990,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,11 +4011,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4057,14 +4052,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44756</v>
+        <v>45979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4076,8 +4071,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4114,14 +4114,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4133,8 +4133,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4171,14 +4176,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45527</v>
+        <v>45979</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4190,8 +4195,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4228,14 +4238,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4247,8 +4257,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4285,14 +4300,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45747</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4304,8 +4319,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4342,14 +4362,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44916</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4361,13 +4381,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>10.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4404,14 +4419,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45007</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4423,13 +4438,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4466,14 +4476,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45537</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4485,13 +4495,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4528,14 +4533,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44599</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4547,13 +4552,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4590,14 +4590,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44916</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4609,13 +4609,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4652,14 +4647,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>44840</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4672,7 +4667,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4709,14 +4704,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>45280</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4729,7 +4724,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4766,14 +4761,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45344</v>
+        <v>44889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4785,8 +4780,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4823,14 +4823,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45370</v>
+        <v>44285</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>9.5</v>
+        <v>5.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4880,14 +4880,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45027</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4899,13 +4899,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4942,14 +4937,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45373</v>
+        <v>44680</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4961,13 +4956,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5004,14 +4994,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45373</v>
+        <v>45016</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5023,8 +5013,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5061,14 +5056,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45370</v>
+        <v>45537</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5080,8 +5075,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5118,14 +5118,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>45007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5137,8 +5137,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5175,14 +5180,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45373</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5194,8 +5199,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5232,14 +5242,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45628</v>
+        <v>45373</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,11 +5263,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5294,14 +5304,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45280</v>
+        <v>45373</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5314,7 +5324,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5351,14 +5361,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45016</v>
+        <v>44937</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5370,13 +5380,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5413,14 +5418,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45244</v>
+        <v>45019</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5434,11 +5439,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5475,14 +5480,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5500,7 +5505,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5537,14 +5542,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44285</v>
+        <v>45370</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5557,7 +5562,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5594,14 +5599,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45007</v>
+        <v>44756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5613,13 +5618,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5656,14 +5656,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44937</v>
+        <v>45527</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>45593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>45527</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 44253-2024</t>
+          <t>A 48791-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45573.45142361111</v>
+        <v>45593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,22 +679,17 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>20.7</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -709,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -719,130 +714,130 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Korallrot
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 44253-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45573.45142361111</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 13760-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Strutbräken</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -853,7 +848,7 @@
         <v>45603</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 48791-2024</t>
+          <t>A 13760-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45593</v>
+        <v>44649</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,15 +950,20 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>20.7</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -980,42 +980,42 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Korallrot
-Svavelriska</t>
+          <t>Ask
+Strutbräken</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44238</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>44480</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44249</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44756</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44733</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44249</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44505</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44582</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44418</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45370</v>
+        <v>45537</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2271,8 +2271,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2309,14 +2314,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7127-2021</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44238</v>
+        <v>45007</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2330,11 +2335,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2371,14 +2376,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45537</v>
+        <v>44599</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2390,13 +2395,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2433,14 +2433,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2495,14 +2495,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>44285</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2552,14 +2552,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45628</v>
+        <v>45007</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2573,11 +2573,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2614,14 +2614,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44599</v>
+        <v>44937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,13 +2633,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2676,14 +2671,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44916</v>
+        <v>45593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2695,13 +2690,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2738,14 +2728,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45007</v>
+        <v>44840</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,13 +2747,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2800,14 +2785,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45027</v>
+        <v>45527</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2819,13 +2804,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2862,14 +2842,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45373</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2882,7 +2862,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2919,14 +2899,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45344</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2938,8 +2918,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2976,14 +2961,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2995,8 +2980,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3033,14 +3023,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44599</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3053,7 +3043,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3090,14 +3080,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45933</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3109,13 +3099,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3152,14 +3137,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,13 +3156,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3214,14 +3194,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45244</v>
+        <v>45019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3235,11 +3215,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3276,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45007</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3295,13 +3275,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3338,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45933</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3358,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3395,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45747</v>
+        <v>44680</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3415,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>7.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3452,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 7127-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45537</v>
+        <v>44238</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3473,11 +3448,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3514,14 +3489,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44916</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3533,13 +3508,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>10.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3576,14 +3546,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>44889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3595,8 +3565,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3633,14 +3608,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45373</v>
+        <v>45537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3652,8 +3627,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3690,14 +3670,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45537</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3711,11 +3691,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3759,7 +3739,7 @@
         <v>45968.65879629629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3814,14 +3794,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,8 +3813,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3856,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,8 +3875,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3918,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>45979</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3953,7 +3943,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3990,14 +3980,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
         <v>45979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4015,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4052,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>45979</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4077,7 +4067,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4121,7 +4111,7 @@
         <v>45979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4176,14 +4166,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45979</v>
+        <v>45978</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4195,13 +4185,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4238,14 +4223,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4263,7 +4248,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4300,14 +4285,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4325,7 +4310,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4362,14 +4347,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45373</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4381,8 +4366,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>10.1</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4419,14 +4409,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>44756</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4439,7 +4429,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4476,14 +4466,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4496,7 +4486,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4533,14 +4523,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45527</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4553,7 +4543,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4590,14 +4580,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45747</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4610,7 +4600,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4647,14 +4637,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44840</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4667,7 +4657,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4704,14 +4694,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45280</v>
+        <v>44916</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4723,8 +4713,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4761,14 +4756,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44889</v>
+        <v>45007</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4823,14 +4818,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44285</v>
+        <v>45537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4842,8 +4837,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4880,14 +4880,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>44599</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4899,8 +4899,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4937,14 +4942,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44680</v>
+        <v>44916</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4956,8 +4961,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4994,14 +5004,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45016</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5013,13 +5023,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5056,14 +5061,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45537</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5075,13 +5080,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5118,14 +5118,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45007</v>
+        <v>45344</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5137,13 +5137,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5180,14 +5175,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45373</v>
+        <v>45370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5199,13 +5194,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5242,14 +5232,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45373</v>
+        <v>45027</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5263,11 +5253,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5304,14 +5294,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>45373</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5323,8 +5313,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5361,14 +5356,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44937</v>
+        <v>45373</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5381,7 +5376,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5418,14 +5413,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45019</v>
+        <v>45370</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5437,13 +5432,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5480,14 +5470,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45537</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5499,13 +5489,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5542,14 +5527,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45370</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5562,7 +5547,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>9.5</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5599,14 +5584,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44756</v>
+        <v>45628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5616,6 +5601,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -5656,14 +5646,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45527</v>
+        <v>45280</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5676,7 +5666,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5713,14 +5703,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45593</v>
+        <v>45016</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5732,8 +5722,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5770,14 +5765,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45527</v>
+        <v>45244</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5789,8 +5784,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 48791-2024</t>
+          <t>A 44253-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45593</v>
+        <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,18 +679,23 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>20.7</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -704,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -714,46 +719,50 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>Korallrot
-Svavelriska</t>
+          <t>Havsörn
+Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 44253-2024</t>
+          <t>A 13760-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45573.45142361111</v>
+        <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -767,26 +776,26 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -795,46 +804,42 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Havsörn
-Svartvit flugsnappare</t>
+          <t>Ask
+Strutbräken</t>
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +853,7 @@
         <v>45603</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +936,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 13760-2022</t>
+          <t>A 48791-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44649</v>
+        <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -950,20 +955,15 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G6" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -980,42 +980,42 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Ask
-Strutbräken</t>
+          <t>Korallrot
+Svavelriska</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1533,14 +1533,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7251-2021</t>
+          <t>A 56315-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44238</v>
+        <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1552,13 +1552,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1595,14 +1590,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 56315-2021</t>
+          <t>A 9027-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44480</v>
+        <v>44249</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1614,8 +1609,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1652,14 +1652,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 9027-2021</t>
+          <t>A 29943-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44249</v>
+        <v>44756</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1671,13 +1671,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>11.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1714,14 +1709,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 29943-2022</t>
+          <t>A 25851-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44756</v>
+        <v>44733</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1734,7 +1729,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>11.4</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1771,14 +1766,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 25851-2022</t>
+          <t>A 58922-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44733</v>
+        <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1790,8 +1785,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58922-2021</t>
+          <t>A 8970-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44489</v>
+        <v>44249</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 8970-2021</t>
+          <t>A 9009-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1952,14 +1952,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 9009-2021</t>
+          <t>A 6109-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44249</v>
+        <v>44599</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1971,13 +1971,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2021,7 +2016,7 @@
         <v>44505</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2078,7 @@
         <v>44582</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,14 +2133,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6109-2022</t>
+          <t>A 40169-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44599</v>
+        <v>44418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2158,7 +2153,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2195,14 +2190,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40169-2021</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44418</v>
+        <v>45537</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2214,8 +2209,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2314,14 +2314,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45007</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2333,13 +2333,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>7.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2376,14 +2371,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44599</v>
+        <v>44916</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2395,8 +2390,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2433,14 +2433,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45537</v>
+        <v>45628</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2454,11 +2454,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2495,14 +2495,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44285</v>
+        <v>44599</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2514,8 +2514,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2552,14 +2557,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45007</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2571,13 +2576,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2614,14 +2614,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44937</v>
+        <v>45370</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2671,14 +2671,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45593</v>
+        <v>45373</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2728,14 +2728,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44840</v>
+        <v>44916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,8 +2747,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2785,14 +2790,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45527</v>
+        <v>45007</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,8 +2809,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2842,14 +2852,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45373</v>
+        <v>45027</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,8 +2871,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2899,14 +2914,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,13 +2933,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2961,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45344</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2980,13 +2990,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3023,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>44680</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3043,7 +3048,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3080,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45933</v>
+        <v>44599</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3100,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3137,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3157,7 +3162,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3194,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45019</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,13 +3218,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>10.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3370,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44680</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7127-2021</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44238</v>
+        <v>45016</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,11 +3448,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3489,14 +3489,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45537</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3508,8 +3508,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>10.1</v>
+        <v>6.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3546,14 +3551,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44889</v>
+        <v>44840</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3565,13 +3570,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3608,14 +3608,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45537</v>
+        <v>45280</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3627,13 +3627,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3670,14 +3665,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45537</v>
+        <v>45244</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3691,7 +3686,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -3732,14 +3727,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>45007</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3757,7 +3752,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3794,14 +3789,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45007</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3819,7 +3814,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3856,14 +3851,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45979</v>
+        <v>45373</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3877,7 +3872,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -3918,14 +3913,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45979</v>
+        <v>45373</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3939,11 +3934,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3980,14 +3975,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45979</v>
+        <v>44889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4001,11 +3996,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4037,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45979</v>
+        <v>45747</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,13 +4056,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4104,14 +4094,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45979</v>
+        <v>45373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,13 +4113,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4166,14 +4151,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45978</v>
+        <v>45537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4185,8 +4170,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4223,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>44937</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4242,13 +4232,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4285,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>44285</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4304,13 +4289,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4347,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45373</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4366,13 +4346,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4409,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44756</v>
+        <v>45019</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4428,8 +4403,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4466,14 +4446,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45537</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4485,8 +4465,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4523,14 +4508,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45527</v>
+        <v>45370</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4543,7 +4528,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>9.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4580,14 +4565,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45747</v>
+        <v>44756</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4600,7 +4585,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4637,14 +4622,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45527</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4657,7 +4642,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4694,14 +4679,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44916</v>
+        <v>45593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4713,13 +4698,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4756,14 +4736,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45007</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4781,7 +4761,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4818,14 +4798,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45537</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4839,11 +4819,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4880,14 +4860,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44599</v>
+        <v>45933</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4899,13 +4879,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4942,14 +4917,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44916</v>
+        <v>45527</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4961,13 +4936,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5004,14 +4974,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5023,8 +4993,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5061,14 +5036,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5080,8 +5055,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>7.1</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5118,14 +5098,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45344</v>
+        <v>45978</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5138,7 +5118,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5175,14 +5155,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45370</v>
+        <v>45979</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5194,8 +5174,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>9.5</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5232,14 +5217,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45027</v>
+        <v>45979</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,11 +5238,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5294,14 +5279,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,11 +5300,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5356,14 +5341,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5375,8 +5360,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5413,14 +5403,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45370</v>
+        <v>45979</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5432,8 +5422,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5470,14 +5465,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5489,8 +5484,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5527,14 +5527,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,6 +5544,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -5584,14 +5589,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45628</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5603,13 +5608,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5643,17 +5643,17 @@
       </c>
       <c r="R82" s="2" t="inlineStr"/>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45280</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5699,130 +5699,6 @@
         <v>0</v>
       </c>
       <c r="R83" s="2" t="inlineStr"/>
-    </row>
-    <row r="84" ht="15" customHeight="1">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>A 15169-2023</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>45016</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" s="2" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>A 57004-2023</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>45244</v>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,14 +755,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 13760-2022</t>
+          <t>A 51481-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44649</v>
+        <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,28 +774,23 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -804,135 +799,140 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 13760-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Strutbräken</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 51481-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45603</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44249</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44756</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44733</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44249</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1952,14 +1952,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 6109-2022</t>
+          <t>A 63049-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44599</v>
+        <v>44505</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1971,8 +1971,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2009,14 +2014,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63049-2021</t>
+          <t>A 3134-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44505</v>
+        <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,11 +2035,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2071,14 +2076,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 3134-2022</t>
+          <t>A 6109-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44582</v>
+        <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2090,13 +2095,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>44418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2190,14 +2190,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2252,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45537</v>
+        <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2314,14 +2314,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2371,14 +2371,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44916</v>
+        <v>45527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2390,13 +2390,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2433,14 +2428,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45628</v>
+        <v>44840</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2452,13 +2447,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2495,14 +2485,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44599</v>
+        <v>45373</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2514,13 +2504,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2557,14 +2542,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2562,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2614,14 +2599,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45370</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2619,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2671,14 +2656,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45373</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2676,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2728,14 +2713,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44916</v>
+        <v>45019</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2749,11 +2734,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2790,14 +2775,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45007</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2809,13 +2794,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2852,14 +2832,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45027</v>
+        <v>44680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,13 +2851,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>7.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2914,14 +2889,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2909,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>10.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2946,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45344</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2990,8 +2965,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3008,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44680</v>
+        <v>44889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3047,8 +3027,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3085,14 +3070,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44599</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3104,8 +3089,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3132,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45933</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3162,7 +3152,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3189,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45537</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3218,8 +3208,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>10.1</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3251,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>45537</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3275,8 +3270,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45373</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3332,8 +3332,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3370,14 +3375,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>44756</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3390,7 +3395,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3432,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45016</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3452,7 +3457,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3489,14 +3494,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45537</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3510,11 +3515,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3551,14 +3556,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44840</v>
+        <v>45527</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3571,7 +3576,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3608,14 +3613,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45280</v>
+        <v>45747</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3628,7 +3633,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3665,14 +3670,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45244</v>
+        <v>45979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3686,11 +3691,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3727,14 +3732,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45007</v>
+        <v>44916</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3748,11 +3753,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3789,14 +3794,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45007</v>
+        <v>45979</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3810,11 +3815,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3851,14 +3856,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3872,11 +3877,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3913,14 +3918,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3934,11 +3939,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3975,14 +3980,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44889</v>
+        <v>45979</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3996,7 +4001,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -4037,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45747</v>
+        <v>45978</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4057,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4094,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45373</v>
+        <v>45007</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,8 +4118,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4151,14 +4161,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45537</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4172,11 +4182,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4223,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44937</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,8 +4242,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4285,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44285</v>
+        <v>45537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,8 +4304,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4347,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>44599</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,8 +4366,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4409,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45019</v>
+        <v>44916</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4405,11 +4430,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4446,14 +4471,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45537</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,13 +4490,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4508,14 +4528,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45370</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4528,7 +4548,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4565,14 +4585,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44756</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4585,7 +4605,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4622,14 +4642,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45527</v>
+        <v>45344</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4642,7 +4662,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4679,14 +4699,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45593</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4699,7 +4719,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4736,14 +4756,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45370</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4755,13 +4775,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>9.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4798,14 +4813,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45027</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4823,7 +4838,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4860,14 +4875,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45933</v>
+        <v>45373</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4879,8 +4894,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4917,14 +4937,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45527</v>
+        <v>45373</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4937,7 +4957,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4974,14 +4994,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45370</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4993,13 +5013,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5036,14 +5051,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5055,13 +5070,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5098,14 +5108,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45978</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5118,7 +5128,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5155,14 +5165,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45979</v>
+        <v>45628</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,11 +5186,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5217,14 +5227,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45979</v>
+        <v>45280</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5236,13 +5246,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5279,14 +5284,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45979</v>
+        <v>45016</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5300,11 +5305,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5341,14 +5346,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45979</v>
+        <v>45244</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5362,7 +5367,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -5403,14 +5408,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45979</v>
+        <v>45537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5428,7 +5433,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5465,14 +5470,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>44285</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5484,13 +5489,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5527,14 +5527,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45007</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5589,14 +5589,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>44937</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5646,14 +5646,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44649</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44249</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44756</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44733</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44249</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44505</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45537</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>45527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44840</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>45373</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>45832.6597337963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45835.58582175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2656,14 +2656,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2675,8 +2675,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2713,14 +2718,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45019</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2738,7 +2743,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2775,14 +2780,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45933</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2795,7 +2800,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2832,14 +2837,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44680</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2852,7 +2857,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2889,14 +2894,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45019</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2908,8 +2913,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>10.1</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2946,14 +2956,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2965,13 +2975,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3008,14 +3013,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44889</v>
+        <v>44680</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3027,13 +3032,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3070,14 +3070,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45933</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3151,8 +3151,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3189,14 +3194,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45537</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3208,13 +3213,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>10.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3251,14 +3251,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45537</v>
+        <v>45979</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3313,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3334,11 +3334,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3375,14 +3375,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44756</v>
+        <v>45979</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3394,8 +3394,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3432,14 +3437,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>45979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3453,11 +3458,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3494,14 +3499,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3515,11 +3520,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3556,14 +3561,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45527</v>
+        <v>45978</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3576,7 +3581,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3613,14 +3618,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45747</v>
+        <v>44889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3632,8 +3637,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3670,14 +3680,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45979</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3691,11 +3701,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3732,14 +3742,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44916</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3753,7 +3763,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3794,14 +3804,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45979</v>
+        <v>45537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3819,7 +3829,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3856,14 +3866,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45979</v>
+        <v>45537</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3881,7 +3891,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3918,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45979</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3937,13 +3947,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3980,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45979</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,13 +4004,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45978</v>
+        <v>45373</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,8 +4061,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4104,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45007</v>
+        <v>44756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,13 +4123,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4161,14 +4161,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45527</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4180,13 +4180,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4223,14 +4218,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45747</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4242,13 +4237,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4285,14 +4275,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45537</v>
+        <v>44916</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4310,7 +4300,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4347,14 +4337,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44599</v>
+        <v>45007</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,14 +4399,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44916</v>
+        <v>45537</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4434,7 +4424,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4471,14 +4461,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>44599</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4490,8 +4480,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4528,14 +4523,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>44916</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4547,8 +4542,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4585,14 +4585,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4642,14 +4642,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45344</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4699,14 +4699,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45344</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>45370</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45027</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45373</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45373</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45370</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>45763.45225694445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>45736.93336805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>45628</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45280</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45016</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45244</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>45537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44285</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45007</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44937</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44649</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44249</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44756</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44733</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44249</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44505</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45537</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>45527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,14 +2428,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44840</v>
+        <v>45979</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2447,8 +2447,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2485,14 +2490,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2504,8 +2509,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2542,14 +2552,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45979</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2561,8 +2571,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2599,14 +2614,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>45979</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2618,8 +2633,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2656,14 +2676,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45979</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,11 +2697,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2718,14 +2738,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45978</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2737,13 +2757,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2780,14 +2795,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45933</v>
+        <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2800,7 +2815,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2837,14 +2852,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>45373</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2857,7 +2872,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2894,14 +2909,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45019</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2934,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2956,14 +2971,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2991,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3013,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44680</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,8 +3047,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3070,14 +3090,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>45933</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,13 +3109,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3132,14 +3147,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3151,13 +3166,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3194,14 +3204,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3214,7 +3224,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>10.1</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3251,14 +3261,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45979</v>
+        <v>45019</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3272,11 +3282,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3313,14 +3323,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45979</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3332,13 +3342,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3375,14 +3380,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45979</v>
+        <v>44680</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3394,13 +3399,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>7.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3437,14 +3437,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45979</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,11 +3458,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3499,14 +3499,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45979</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3520,11 +3520,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3561,14 +3561,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45978</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3580,8 +3580,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3618,14 +3623,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44889</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3643,7 +3648,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3680,14 +3685,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3699,13 +3704,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>10.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3742,14 +3742,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3761,13 +3761,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3804,14 +3799,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45537</v>
+        <v>44889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3825,11 +3820,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3866,14 +3861,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45537</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,13 +3880,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3918,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45537</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,8 +3937,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3985,14 +3980,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,8 +3999,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>45373</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45527</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45747</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>44916</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45007</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45537</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>44599</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44916</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45553.40293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44937.6478587963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45344</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>45370</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45027</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45373</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45373</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45370</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>45763.45225694445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>45736.93336805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>45628</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45280</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45016</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45244</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>45537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44285</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45007</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44937</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 44253-2024</t>
+          <t>A 48791-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45573.45142361111</v>
+        <v>45593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,22 +679,17 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>20.7</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -709,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -719,129 +714,130 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Korallrot
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 44253-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45573.45142361111</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 51481-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45603</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -852,7 +848,7 @@
         <v>44649</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,14 +932,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 48791-2024</t>
+          <t>A 51481-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -956,17 +952,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>20.7</v>
+        <v>12.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -980,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -990,32 +986,36 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Korallrot
-Svavelriska</t>
+          <t>Spillkråka
+Talltita</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44249</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44756</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44733</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44249</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44505</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2190,14 +2190,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45537</v>
+        <v>45527</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2209,13 +2209,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2252,14 +2247,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45007</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2272,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2314,14 +2309,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44599</v>
+        <v>45933</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2329,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2371,14 +2366,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45527</v>
+        <v>45370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2386,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2428,14 +2423,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45979</v>
+        <v>45593</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2447,13 +2442,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2490,14 +2480,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45979</v>
+        <v>45527</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2509,13 +2499,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2552,14 +2537,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45979</v>
+        <v>45537</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2562,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2614,14 +2599,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45979</v>
+        <v>45537</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2639,7 +2624,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2676,14 +2661,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45979</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2695,13 +2680,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2738,14 +2718,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45978</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2757,8 +2737,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2795,14 +2780,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44840</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2814,8 +2799,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2852,14 +2842,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45373</v>
+        <v>45628</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2871,8 +2861,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2909,14 +2904,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>44599</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2934,7 +2929,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2971,14 +2966,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>44916</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2990,8 +2985,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3090,14 +3090,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45933</v>
+        <v>45007</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3109,8 +3109,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3147,14 +3152,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>45978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3167,7 +3172,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3204,14 +3209,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>45027</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3223,8 +3228,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3261,14 +3271,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45019</v>
+        <v>45979</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3282,11 +3292,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3323,14 +3333,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45979</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,8 +3352,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3380,14 +3395,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44680</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3400,7 +3415,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.7</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3437,14 +3452,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3458,11 +3473,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3499,14 +3514,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3520,11 +3535,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3561,14 +3576,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>45979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3582,11 +3597,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3623,14 +3638,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45344</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3642,13 +3657,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3685,14 +3695,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3705,7 +3715,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>10.1</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3742,14 +3752,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3761,8 +3771,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3799,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44889</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3824,7 +3839,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3861,14 +3876,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>44599</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3881,7 +3896,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3918,14 +3933,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45537</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3937,13 +3952,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3980,14 +3990,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45537</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,13 +4009,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4047,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45373</v>
+        <v>45244</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4067,7 +4072,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4104,14 +4109,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44756</v>
+        <v>45007</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,8 +4128,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4161,14 +4171,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45527</v>
+        <v>45747</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4181,7 +4191,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4218,14 +4228,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45747</v>
+        <v>45537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4237,8 +4247,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4275,14 +4290,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>44916</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4300,7 +4315,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4337,14 +4352,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45007</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4356,13 +4371,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4399,14 +4409,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45537</v>
+        <v>45373</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4418,13 +4428,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4461,14 +4466,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44599</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4480,13 +4485,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44916</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4542,13 +4542,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>10.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4585,14 +4580,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4605,7 +4600,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4642,14 +4637,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4662,7 +4657,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4699,14 +4694,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45344</v>
+        <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4756,14 +4751,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45370</v>
+        <v>45280</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4776,7 +4771,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9.5</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4813,14 +4808,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45027</v>
+        <v>44889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4838,7 +4833,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4875,14 +4870,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45373</v>
+        <v>44285</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4894,13 +4889,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4937,14 +4927,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45373</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4957,7 +4947,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4994,14 +4984,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45370</v>
+        <v>44680</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5014,7 +5004,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>7.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5051,14 +5041,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>45016</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5070,8 +5060,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5108,14 +5103,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45537</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5127,8 +5122,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5165,14 +5165,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45628</v>
+        <v>45007</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5186,11 +5186,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5227,14 +5227,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45280</v>
+        <v>45373</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5246,8 +5246,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5284,14 +5289,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45016</v>
+        <v>45373</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5305,11 +5310,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5346,14 +5351,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45244</v>
+        <v>45373</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5365,13 +5370,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5408,14 +5408,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45537</v>
+        <v>44937</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5427,13 +5427,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5470,14 +5465,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44285</v>
+        <v>45019</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5489,8 +5484,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5527,14 +5527,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45007</v>
+        <v>45537</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5548,11 +5548,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5589,14 +5589,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44937</v>
+        <v>45370</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>9.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5646,14 +5646,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45593</v>
+        <v>44756</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 48791-2024</t>
+          <t>A 44253-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45593</v>
+        <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,18 +679,23 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>20.7</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -704,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -714,46 +719,50 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>Korallrot
-Svavelriska</t>
+          <t>Havsörn
+Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 44253-2024</t>
+          <t>A 51481-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45573.45142361111</v>
+        <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -765,13 +774,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>12.8</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -805,36 +809,36 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Havsörn
-Svartvit flugsnappare</t>
+          <t>Spillkråka
+Talltita</t>
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
       <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +852,7 @@
         <v>44649</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,14 +936,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 51481-2024</t>
+          <t>A 48791-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,16 +956,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>12.8</v>
+        <v>20.7</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -976,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -986,36 +990,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Talltita</t>
+          <t>Korallrot
+Svavelriska</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44249</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44756</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44733</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44249</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44505</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2190,14 +2190,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45527</v>
+        <v>45537</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2209,8 +2209,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2247,14 +2252,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2272,7 +2277,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2309,14 +2314,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45933</v>
+        <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2329,7 +2334,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2366,14 +2371,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45370</v>
+        <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2386,7 +2391,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2423,14 +2428,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45593</v>
+        <v>45373</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2443,7 +2448,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2480,14 +2485,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45527</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2500,7 +2505,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2537,14 +2542,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45537</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2556,13 +2561,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2599,14 +2599,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45537</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2618,13 +2618,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2661,14 +2656,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2680,8 +2675,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>7.1</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2718,14 +2718,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2737,13 +2737,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2780,14 +2775,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>44680</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2799,13 +2794,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>7.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2842,14 +2832,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45628</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2863,11 +2853,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2904,14 +2894,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44599</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2929,7 +2919,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2966,14 +2956,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44916</v>
+        <v>45933</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2985,13 +2975,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3028,14 +3013,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3047,13 +3032,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3090,14 +3070,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45007</v>
+        <v>44889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3152,14 +3132,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45978</v>
+        <v>45537</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3171,8 +3151,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3209,14 +3194,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45027</v>
+        <v>45537</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3230,11 +3215,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3271,14 +3256,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45979</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3292,11 +3277,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3333,14 +3318,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45979</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3354,11 +3339,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3395,14 +3380,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45979</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3414,8 +3399,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3452,14 +3442,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>45979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3477,7 +3467,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3514,14 +3504,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3539,7 +3529,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3576,14 +3566,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>45979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3601,7 +3591,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3638,14 +3628,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45344</v>
+        <v>45979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,8 +3647,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3695,14 +3690,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>45978</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3715,7 +3710,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3752,14 +3747,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3772,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3809,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3839,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3876,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44599</v>
+        <v>45373</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3895,8 +3890,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3933,14 +3933,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>44756</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3990,14 +3990,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45527</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4047,14 +4047,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45244</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4066,13 +4066,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4109,14 +4104,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45007</v>
+        <v>45747</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4128,13 +4123,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4171,14 +4161,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45747</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4191,7 +4181,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4228,14 +4218,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45537</v>
+        <v>44916</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4253,7 +4243,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4290,14 +4280,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44916</v>
+        <v>45007</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4311,11 +4301,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4352,14 +4342,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45537</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4371,8 +4361,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4409,14 +4404,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45373</v>
+        <v>44599</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4428,8 +4423,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>44916</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4485,8 +4485,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4523,14 +4528,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4543,7 +4548,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>10.1</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4580,14 +4585,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4600,7 +4605,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4637,14 +4642,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>45344</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4657,7 +4662,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4694,14 +4699,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44840</v>
+        <v>45370</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4714,7 +4719,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4751,14 +4756,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45280</v>
+        <v>45027</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4770,8 +4775,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4808,14 +4818,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44889</v>
+        <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,11 +4839,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4870,14 +4880,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44285</v>
+        <v>45373</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4890,7 +4900,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4927,14 +4937,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>45370</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4947,7 +4957,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4984,14 +4994,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44680</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5004,7 +5014,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5041,14 +5051,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45016</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5060,13 +5070,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5103,14 +5108,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45537</v>
+        <v>45628</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5124,11 +5129,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5165,14 +5170,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45007</v>
+        <v>45280</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5184,13 +5189,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5227,14 +5227,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45373</v>
+        <v>45016</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5248,11 +5248,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5289,14 +5289,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45373</v>
+        <v>45244</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5351,14 +5351,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45373</v>
+        <v>45537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5370,8 +5370,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5408,14 +5413,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44937</v>
+        <v>44285</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5428,7 +5433,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5465,14 +5470,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45019</v>
+        <v>45007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5527,14 +5532,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45537</v>
+        <v>44937</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,11 +5549,6 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -5589,14 +5589,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45370</v>
+        <v>45593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5646,14 +5646,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44756</v>
+        <v>45527</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44649</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44249</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44756</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44733</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44249</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44505</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45537</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45373</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>45832.6597337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>45835.58582175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44840.4959375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>45379.46974537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44680</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>45925.65525462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>45931.55524305555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>45933</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>45645.43471064815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45537</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>45537</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45968.65879629629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>45968.64399305556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45979</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>45979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>45978</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45988.48501157408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45988.61856481482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>45373</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44756</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45527</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>46041.82646990741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45747</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>46041.87569444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44916</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45007</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45537</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>44599</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44916</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45553.40293981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44937.6478587963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45344</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45370</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>45027</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>45373</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45370</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45763.45225694445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>45736.93336805556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>45628</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45280</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45016</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>45244</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44285</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44937</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45527</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>45603</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44649</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44249</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>44756</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>44733</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44249</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>44505</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44599</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>44418</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45537</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45373</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>45832.6597337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>45835.58582175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44840.4959375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>45379.46974537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44680</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>45925.65525462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>45931.55524305555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>45933</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>45645.43471064815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45537</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>45537</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>45968.65879629629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>45968.64399305556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45979</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>45979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45979</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3635,7 +3635,7 @@
         <v>45979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>45978</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45988.48501157408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45988.61856481482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>45373</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44756</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45527</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>46041.82646990741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45747</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>46041.87569444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44916</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45007</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45537</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>44599</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44916</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45553.40293981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44937.6478587963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45344</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45370</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>45027</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>45373</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45370</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45763.45225694445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>45736.93336805556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>45628</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45280</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>45016</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>45244</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>45537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44285</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44937</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45527</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,14 +755,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 51481-2024</t>
+          <t>A 13760-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45603</v>
+        <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,23 +774,28 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -799,140 +804,135 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Strutbräken</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 51481-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 13760-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Strutbräken</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1590,14 +1590,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 9027-2021</t>
+          <t>A 29943-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44249</v>
+        <v>44756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1609,13 +1609,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>11.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1652,14 +1647,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 29943-2022</t>
+          <t>A 25851-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44756</v>
+        <v>44733</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1672,7 +1667,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>11.4</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1709,14 +1704,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 25851-2022</t>
+          <t>A 58922-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44733</v>
+        <v>44489</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1728,8 +1723,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1766,14 +1766,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58922-2021</t>
+          <t>A 63049-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44489</v>
+        <v>44505</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 8970-2021</t>
+          <t>A 3134-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44249</v>
+        <v>44582</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,11 +1849,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 9009-2021</t>
+          <t>A 6109-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44249</v>
+        <v>44599</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1909,13 +1909,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1952,14 +1947,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 63049-2021</t>
+          <t>A 40169-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44505</v>
+        <v>44418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1969,11 +1964,6 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2014,14 +2004,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3134-2022</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44582</v>
+        <v>45007</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2035,11 +2025,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2076,14 +2066,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 6109-2022</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44599</v>
+        <v>45027</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2095,8 +2085,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2133,14 +2128,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 40169-2021</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44418</v>
+        <v>45370</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2153,7 +2148,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2190,14 +2185,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45537</v>
+        <v>45244</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2211,11 +2206,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2252,14 +2247,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2277,7 +2272,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2314,14 +2309,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44599</v>
+        <v>45344</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2334,7 +2329,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2371,14 +2366,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44840</v>
+        <v>45747</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2391,7 +2386,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2428,14 +2423,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45373</v>
+        <v>45537</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2447,8 +2442,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2485,14 +2485,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2542,14 +2542,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>44599</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2599,14 +2599,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>44916</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2618,8 +2618,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2656,14 +2661,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45019</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2675,13 +2680,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2718,14 +2718,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>44840</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2775,14 +2775,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44680</v>
+        <v>45373</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2832,14 +2832,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45280</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2851,13 +2851,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2894,14 +2889,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45537</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2915,11 +2910,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2956,14 +2951,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45933</v>
+        <v>45537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,8 +2970,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>45645.43471064815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3070,14 +3070,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44889</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,13 +3089,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3132,14 +3127,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45537</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3151,13 +3146,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3194,14 +3184,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45537</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3213,13 +3203,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3256,14 +3241,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>44889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3281,7 +3266,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3318,14 +3303,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45628</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3339,11 +3324,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3380,14 +3365,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45979</v>
+        <v>44599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3401,11 +3386,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3442,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45979</v>
+        <v>44285</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3461,13 +3446,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3504,14 +3484,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45979</v>
+        <v>44916</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3529,7 +3509,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3566,14 +3546,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45979</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3585,13 +3565,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3628,14 +3603,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45979</v>
+        <v>44680</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3647,13 +3622,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3690,14 +3660,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45978</v>
+        <v>45016</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3707,6 +3677,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -3747,14 +3722,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3772,7 +3747,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3809,14 +3784,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45537</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3830,11 +3805,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3846,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45373</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3892,11 +3867,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3933,14 +3908,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44756</v>
+        <v>45933</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3953,7 +3928,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3990,14 +3965,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45527</v>
+        <v>45007</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4009,8 +3984,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4047,14 +4027,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45373</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4066,8 +4046,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4104,14 +4089,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45747</v>
+        <v>45373</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4123,8 +4108,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4161,14 +4151,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45373</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4181,7 +4171,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4218,14 +4208,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44916</v>
+        <v>44937</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4237,13 +4227,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4280,14 +4265,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45007</v>
+        <v>45019</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4305,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4342,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4367,7 +4352,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4404,14 +4389,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44599</v>
+        <v>45370</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4423,13 +4408,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>9.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4466,14 +4446,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44916</v>
+        <v>44756</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4485,13 +4465,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4528,14 +4503,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4547,8 +4522,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4585,14 +4565,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4604,8 +4584,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>7.1</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4642,14 +4627,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45344</v>
+        <v>45978</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4662,7 +4647,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4699,14 +4684,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45370</v>
+        <v>45527</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4719,7 +4704,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9.5</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4756,14 +4741,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45027</v>
+        <v>45979</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4777,11 +4762,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4818,14 +4803,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4839,11 +4824,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4880,14 +4865,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4899,8 +4884,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4937,14 +4927,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45370</v>
+        <v>45979</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4956,8 +4946,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4994,14 +4989,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>45979</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5013,8 +5008,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5051,14 +5051,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5108,14 +5108,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45628</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5129,11 +5129,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5170,14 +5170,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45280</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5189,8 +5189,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5227,14 +5232,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45016</v>
+        <v>45527</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5246,13 +5251,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5289,14 +5289,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45244</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5308,13 +5308,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5351,14 +5346,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45537</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5370,13 +5365,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5413,14 +5403,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44285</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5433,7 +5423,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5467,17 +5457,17 @@
       </c>
       <c r="R79" s="2" t="inlineStr"/>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45007</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5489,13 +5479,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5528,177 +5513,6 @@
         <v>0</v>
       </c>
       <c r="R80" s="2" t="inlineStr"/>
-    </row>
-    <row r="81" ht="15" customHeight="1">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>A 1431-2023</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>44937</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
-      </c>
-      <c r="R81" s="2" t="inlineStr"/>
-    </row>
-    <row r="82" ht="15" customHeight="1">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>A 48793-2024</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>45593</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" s="2" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>A 35054-2024</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 44253-2024</t>
+          <t>A 48791-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45573.45142361111</v>
+        <v>45593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,22 +679,17 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>20.7</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -709,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -719,130 +714,130 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Korallrot
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 44253-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45573.45142361111</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 13760-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Strutbräken</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -853,7 +848,7 @@
         <v>45603</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 48791-2024</t>
+          <t>A 13760-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45593</v>
+        <v>44649</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,15 +950,20 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>20.7</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -980,42 +980,42 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Korallrot
-Svavelriska</t>
+          <t>Ask
+Strutbräken</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44733</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44489</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44505</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44582</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44599</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45007</v>
+        <v>45537</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2025,11 +2025,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2066,14 +2066,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45027</v>
+        <v>45007</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2128,14 +2128,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45370</v>
+        <v>44599</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2185,14 +2185,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45244</v>
+        <v>45933</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2204,13 +2204,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2247,14 +2242,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45007</v>
+        <v>44937</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2266,13 +2261,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2309,14 +2299,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45344</v>
+        <v>45593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2329,7 +2319,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2366,14 +2356,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45747</v>
+        <v>44840</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2386,7 +2376,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2423,14 +2413,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45537</v>
+        <v>45527</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2442,13 +2432,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2485,14 +2470,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>45373</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2505,7 +2490,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2542,14 +2527,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44599</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2561,8 +2546,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2599,14 +2589,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44916</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,11 +2610,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2661,14 +2651,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2681,7 +2671,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2718,14 +2708,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44840</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2738,7 +2728,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2775,14 +2765,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45373</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2795,7 +2785,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2832,14 +2822,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45280</v>
+        <v>45019</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2851,8 +2841,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2889,14 +2884,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45537</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2908,13 +2903,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2951,14 +2941,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45537</v>
+        <v>44680</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2970,13 +2960,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3020,7 +3005,7 @@
         <v>45645.43471064815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3070,14 +3055,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,8 +3074,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>7.1</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3127,14 +3117,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,8 +3136,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3184,14 +3179,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>44889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,8 +3198,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3241,14 +3241,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44889</v>
+        <v>45979</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45628</v>
+        <v>45979</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3324,11 +3324,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3365,14 +3365,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44599</v>
+        <v>45979</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3386,11 +3386,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3427,14 +3427,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44285</v>
+        <v>45979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3446,8 +3446,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,14 +3489,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44916</v>
+        <v>45979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3509,7 +3514,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3546,14 +3551,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>45978</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3566,7 +3571,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3603,14 +3608,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44680</v>
+        <v>45537</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3622,8 +3627,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3660,14 +3670,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45016</v>
+        <v>45537</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3681,11 +3691,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3722,14 +3732,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3747,7 +3757,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3784,14 +3794,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45537</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3805,11 +3815,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3846,14 +3856,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3865,13 +3875,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3908,14 +3913,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45933</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3928,7 +3933,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3965,14 +3970,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45007</v>
+        <v>45373</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3986,11 +3991,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4027,14 +4032,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45373</v>
+        <v>44756</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4046,13 +4051,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45373</v>
+        <v>45527</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4108,13 +4108,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>8.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4151,14 +4146,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45373</v>
+        <v>45747</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4171,7 +4166,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4208,14 +4203,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44937</v>
+        <v>44916</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,8 +4222,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4265,14 +4265,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45019</v>
+        <v>45007</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4389,14 +4389,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45370</v>
+        <v>44599</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,8 +4408,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>9.5</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4446,14 +4451,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44756</v>
+        <v>44916</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4465,8 +4470,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4503,14 +4513,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4522,13 +4532,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4565,14 +4570,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4584,13 +4589,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>7.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4627,14 +4627,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45978</v>
+        <v>45344</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4684,14 +4684,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45527</v>
+        <v>45370</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>9.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4741,14 +4741,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45979</v>
+        <v>45027</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4803,14 +4803,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 10390-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45979</v>
+        <v>46077.29386574074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4822,13 +4822,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4865,14 +4860,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 10393-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45979</v>
+        <v>46077.30393518518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4884,13 +4879,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4927,14 +4917,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45979</v>
+        <v>45373</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,11 +4938,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4989,14 +4979,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45979</v>
+        <v>45373</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5008,13 +4998,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5051,14 +5036,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45593</v>
+        <v>45370</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5071,7 +5056,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5108,14 +5093,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5127,13 +5112,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5170,14 +5150,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5187,11 +5167,6 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -5232,14 +5207,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45527</v>
+        <v>45628</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5251,8 +5226,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5289,14 +5269,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5309,7 +5289,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5346,14 +5326,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45016</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5365,8 +5345,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5403,14 +5388,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45244</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5422,8 +5407,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5457,17 +5447,17 @@
       </c>
       <c r="R79" s="2" t="inlineStr"/>
     </row>
-    <row r="80">
+    <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>45537</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5479,8 +5469,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5513,6 +5508,125 @@
         <v>0</v>
       </c>
       <c r="R80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81" ht="15" customHeight="1">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>A 15604-2021</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>44285</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>A 13829-2023</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,14 +660,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 48791-2024</t>
+          <t>A 44253-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45593</v>
+        <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -679,18 +679,23 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>20.7</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -704,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -714,311 +719,306 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Havsörn
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 51481-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 13760-2022</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Strutbräken</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 48791-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Korallrot
 Svavelriska</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 48791-2024 artfynd.xlsx", "A 48791-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 48791-2024 karta.png", "A 48791-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 48791-2024 FSC-klagomål.docx", "A 48791-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 48791-2024 FSC-klagomål mail.docx", "A 48791-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 48791-2024 tillsynsbegäran.docx", "A 48791-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 48791-2024 tillsynsbegäran mail.docx", "A 48791-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 44253-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45573.45142361111</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Svartvit flugsnappare</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 44253-2024 artfynd.xlsx", "A 44253-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 44253-2024 karta.png", "A 44253-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 44253-2024 FSC-klagomål.docx", "A 44253-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 44253-2024 FSC-klagomål mail.docx", "A 44253-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 44253-2024 tillsynsbegäran.docx", "A 44253-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 44253-2024 tillsynsbegäran mail.docx", "A 44253-2024")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 44253-2024 prioriterade fågelarter.docx", "A 44253-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 51481-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45603</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 13760-2022</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Strutbräken</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44733</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44489</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44505</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44582</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44599</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45537</v>
+        <v>45344</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2023,13 +2023,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2066,14 +2061,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2091,7 +2086,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2128,14 +2123,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44599</v>
+        <v>45537</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2147,8 +2142,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2185,14 +2185,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45933</v>
+        <v>45370</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2242,14 +2242,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44937</v>
+        <v>45007</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2261,8 +2261,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2299,14 +2304,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45593</v>
+        <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2319,7 +2324,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2356,14 +2361,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44720-2022</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44840</v>
+        <v>45373</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2375,8 +2380,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2413,14 +2423,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45527</v>
+        <v>45373</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2432,8 +2442,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2477,7 +2492,7 @@
         <v>45373</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2527,14 +2542,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>44937</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2546,13 +2561,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2589,14 +2599,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45537</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2610,11 +2620,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2651,14 +2661,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45537</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2670,8 +2680,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2708,14 +2723,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2728,7 +2743,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>7.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2765,14 +2780,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>45019</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2784,8 +2799,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2822,14 +2842,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45019</v>
+        <v>45537</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2843,11 +2863,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2884,14 +2904,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2904,7 +2924,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2941,14 +2961,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44680</v>
+        <v>45628</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2960,8 +2980,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>7.7</v>
+        <v>4.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2998,14 +3023,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45370</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3018,7 +3043,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3055,14 +3080,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>44599</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3080,7 +3105,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3117,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>44756</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3136,13 +3161,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3179,14 +3199,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44889</v>
+        <v>44916</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3200,11 +3220,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3241,14 +3261,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45979</v>
+        <v>45007</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3262,11 +3282,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3303,14 +3323,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45979</v>
+        <v>45244</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3324,7 +3344,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -3365,14 +3385,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45979</v>
+        <v>45007</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3386,7 +3406,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -3427,14 +3447,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45979</v>
+        <v>45027</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3448,11 +3468,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3489,14 +3509,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45979</v>
+        <v>45527</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3508,13 +3528,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3551,14 +3566,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45978</v>
+        <v>45747</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3571,7 +3586,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3608,14 +3623,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 48793-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45537</v>
+        <v>45593</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3627,13 +3642,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3670,14 +3680,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3695,7 +3705,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3732,14 +3742,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3751,13 +3761,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>10.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3794,14 +3799,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3813,13 +3818,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3856,14 +3856,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3913,14 +3913,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>44916</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3932,8 +3932,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3970,14 +3975,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45373</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3989,13 +3994,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44756</v>
+        <v>45373</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 35054-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>45527</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4146,14 +4146,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45747</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4165,8 +4165,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4203,14 +4208,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44916</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4224,11 +4229,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4265,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45007</v>
+        <v>45933</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,13 +4289,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 44720-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45537</v>
+        <v>44840</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,13 +4346,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4389,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44599</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,13 +4403,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4451,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44916</v>
+        <v>45280</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,13 +4460,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4513,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4533,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4570,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,8 +4574,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4627,14 +4617,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45344</v>
+        <v>44889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,8 +4636,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4684,14 +4679,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45370</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,8 +4698,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4741,14 +4741,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45027</v>
+        <v>45978</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,13 +4760,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4803,14 +4798,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 10390-2026</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46077.29386574074</v>
+        <v>45979</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4822,8 +4817,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4860,14 +4860,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10393-2026</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46077.30393518518</v>
+        <v>45979</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4879,8 +4879,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4917,14 +4922,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4938,11 +4943,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4979,14 +4984,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45373</v>
+        <v>45979</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4998,8 +5003,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5036,14 +5046,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45370</v>
+        <v>45979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5055,8 +5065,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5093,14 +5108,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>44285</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5113,7 +5128,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5150,14 +5165,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5169,8 +5184,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5207,14 +5227,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45628</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5228,11 +5248,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5269,14 +5289,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45280</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5289,7 +5309,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5326,14 +5346,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45016</v>
+        <v>44680</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5345,13 +5365,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5388,14 +5403,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45244</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5407,13 +5422,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5450,14 +5460,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45537</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5469,13 +5479,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5512,14 +5517,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 10390-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44285</v>
+        <v>46077.29386574074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5532,7 +5537,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5569,14 +5574,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 10393-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45007</v>
+        <v>46077.30393518518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5588,13 +5593,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z82"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,14 +755,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 51481-2024</t>
+          <t>A 13760-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45603</v>
+        <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -774,23 +774,28 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -799,140 +804,135 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Strutbräken</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 51481-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 51481-2024 artfynd.xlsx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 51481-2024 karta.png", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 51481-2024 FSC-klagomål.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 51481-2024 FSC-klagomål mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 51481-2024 tillsynsbegäran.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 51481-2024 tillsynsbegäran mail.docx", "A 51481-2024")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0488/fåglar/A 51481-2024 prioriterade fågelarter.docx", "A 51481-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 13760-2022</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44649</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TROSA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Strutbräken</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/artfynd/A 13760-2022 artfynd.xlsx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/kartor/A 13760-2022 karta.png", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomål/A 13760-2022 FSC-klagomål.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/klagomålsmail/A 13760-2022 FSC-klagomål mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsyn/A 13760-2022 tillsynsbegäran.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0488/tillsynsmail/A 13760-2022 tillsynsbegäran mail.docx", "A 13760-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44733</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44489</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44505</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44582</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44599</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2004,14 +2004,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7204-2024</t>
+          <t>A 11066-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45344</v>
+        <v>45370</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2061,14 +2061,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15169-2023</t>
+          <t>A 36709-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45016</v>
+        <v>45537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2123,14 +2123,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 36712-2024</t>
+          <t>A 36711-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>45537</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2185,14 +2185,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 11066-2024</t>
+          <t>A 1589-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45370</v>
+        <v>44937.6478587963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2242,14 +2242,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 13839-2023</t>
+          <t>A 57005-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45007</v>
+        <v>45628</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2263,11 +2263,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2304,14 +2304,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 6102-2022</t>
+          <t>A 6124-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2323,8 +2323,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2361,14 +2366,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11740-2024</t>
+          <t>A 62474-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45373</v>
+        <v>44916</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2382,11 +2387,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2423,14 +2428,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11742-2024</t>
+          <t>A 13810-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45373</v>
+        <v>45007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2444,11 +2449,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2485,14 +2490,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11736-2024</t>
+          <t>A 16029-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45373</v>
+        <v>45027</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2504,8 +2509,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2542,14 +2552,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 1431-2023</t>
+          <t>A 7204-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44937</v>
+        <v>45344</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2562,7 +2572,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2599,14 +2609,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36709-2024</t>
+          <t>A 31166-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45537</v>
+        <v>45832.6597337963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2618,13 +2628,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2661,14 +2666,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 36711-2024</t>
+          <t>A 32213-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45537</v>
+        <v>45835.58582175926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2680,13 +2685,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2723,14 +2723,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1589-2023</t>
+          <t>A 6102-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44937.6478587963</v>
+        <v>44599</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2780,14 +2780,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 15293-2023</t>
+          <t>A 46451-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45019</v>
+        <v>45925.65525462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2842,14 +2842,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 36710-2024</t>
+          <t>A 47659-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45537</v>
+        <v>45931.55524305555</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2863,11 +2863,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 39827-2024</t>
+          <t>A 48314-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45553.40293981481</v>
+        <v>45933</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57005-2024</t>
+          <t>A 57004-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45628</v>
+        <v>45244</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2982,11 +2982,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3023,14 +3023,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10998-2024</t>
+          <t>A 13829-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45370</v>
+        <v>45007</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3042,8 +3042,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3080,14 +3085,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 6124-2022</t>
+          <t>A 15593-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44599</v>
+        <v>45747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3099,13 +3104,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29930-2022</t>
+          <t>A 36812-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44756</v>
+        <v>45537</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3161,8 +3161,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3199,14 +3204,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62474-2022</t>
+          <t>A 62473-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>44916</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3224,7 +3229,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3261,14 +3266,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13810-2023</t>
+          <t>A 12447-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45007</v>
+        <v>45379.46974537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3280,13 +3285,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3323,14 +3323,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 57004-2023</t>
+          <t>A 11743-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45244</v>
+        <v>45373</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3342,13 +3342,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3385,14 +3380,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13829-2023</t>
+          <t>A 55257-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45007</v>
+        <v>45968.64399305556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3410,7 +3405,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3447,14 +3442,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16029-2023</t>
+          <t>A 55265-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45027</v>
+        <v>45968.65879629629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3472,7 +3467,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3509,14 +3504,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35058-2024</t>
+          <t>A 56965-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45527</v>
+        <v>45978</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3529,7 +3524,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3566,14 +3561,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15593-2025</t>
+          <t>A 39827-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45747</v>
+        <v>45553.40293981481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3586,7 +3581,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3623,14 +3618,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 48793-2024</t>
+          <t>A 57246-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45593</v>
+        <v>45979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3642,8 +3637,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3680,14 +3680,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36812-2024</t>
+          <t>A 57342-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45537</v>
+        <v>45979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3742,14 +3742,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61000-2024</t>
+          <t>A 57338-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45645.43471064815</v>
+        <v>45979</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3761,8 +3761,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>10.1</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3799,14 +3804,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13675-2025</t>
+          <t>A 57344-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45736.93336805556</v>
+        <v>45979</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3818,8 +3823,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3856,14 +3866,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18565-2025</t>
+          <t>A 57251-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45763.45225694445</v>
+        <v>45979</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3875,8 +3885,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3913,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62473-2022</t>
+          <t>A 59222-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44916</v>
+        <v>45988.61856481482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3934,11 +3949,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3975,14 +3990,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12447-2024</t>
+          <t>A 59112-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45379.46974537037</v>
+        <v>45988.48501157408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3994,8 +4009,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4032,14 +4052,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11743-2024</t>
+          <t>A 61000-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45373</v>
+        <v>45645.43471064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4052,7 +4072,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>10.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4089,14 +4109,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35054-2024</t>
+          <t>A 3337-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45527</v>
+        <v>46041.82646990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4109,7 +4129,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4146,14 +4166,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46451-2025</t>
+          <t>A 3346-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45925.65525462963</v>
+        <v>46041.87569444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4165,13 +4185,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4208,14 +4223,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47659-2025</t>
+          <t>A 13675-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45931.55524305555</v>
+        <v>45736.93336805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,13 +4242,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4280,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48314-2025</t>
+          <t>A 18565-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45933</v>
+        <v>45763.45225694445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4300,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4334,7 +4344,7 @@
         <v>44840</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4384,14 +4394,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 31166-2025</t>
+          <t>A 64286-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45832.6597337963</v>
+        <v>45280</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4414,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4451,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64286-2023</t>
+          <t>A 56117-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45280</v>
+        <v>44889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,8 +4470,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4513,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32213-2025</t>
+          <t>A 10390-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45835.58582175926</v>
+        <v>46077.29386574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4533,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4570,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55257-2025</t>
+          <t>A 10393-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45968.64399305556</v>
+        <v>46077.30393518518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,13 +4589,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4617,14 +4627,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56117-2022</t>
+          <t>A 15604-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44889</v>
+        <v>44285</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4636,13 +4646,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4679,14 +4684,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55265-2025</t>
+          <t>A 44579-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45968.65879629629</v>
+        <v>44840.4959375</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4698,13 +4703,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4741,14 +4741,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 56965-2025</t>
+          <t>A 11119-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45978</v>
+        <v>46079.67304398148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4798,14 +4798,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57246-2025</t>
+          <t>A 17600-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45979</v>
+        <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,13 +4817,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4860,14 +4855,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 57342-2025</t>
+          <t>A 11103-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45979</v>
+        <v>46079.65329861111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4879,13 +4874,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4922,14 +4912,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 57338-2025</t>
+          <t>A 15169-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45979</v>
+        <v>45016</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4943,11 +4933,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4984,14 +4974,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57344-2025</t>
+          <t>A 36712-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45979</v>
+        <v>45537</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5009,7 +4999,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5046,14 +5036,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57251-2025</t>
+          <t>A 13839-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45979</v>
+        <v>45007</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5067,11 +5057,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5108,14 +5098,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15604-2021</t>
+          <t>A 11740-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44285</v>
+        <v>45373</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5127,8 +5117,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5165,14 +5160,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59222-2025</t>
+          <t>A 11742-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45988.61856481482</v>
+        <v>45373</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5186,11 +5181,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5227,14 +5222,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59112-2025</t>
+          <t>A 11736-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45988.48501157408</v>
+        <v>45373</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5246,13 +5241,8 @@
           <t>TROSA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5289,14 +5279,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44579-2022</t>
+          <t>A 1431-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44840.4959375</v>
+        <v>44937</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5309,7 +5299,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5346,14 +5336,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17600-2022</t>
+          <t>A 15293-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44680</v>
+        <v>45019</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5365,8 +5355,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5403,14 +5398,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 3337-2026</t>
+          <t>A 36710-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46041.82646990741</v>
+        <v>45537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5422,8 +5417,13 @@
           <t>TROSA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5460,14 +5460,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3346-2026</t>
+          <t>A 10998-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46041.87569444445</v>
+        <v>45370</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5517,14 +5517,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10390-2026</t>
+          <t>A 29930-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46077.29386574074</v>
+        <v>44756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5571,17 +5571,17 @@
       </c>
       <c r="R81" s="2" t="inlineStr"/>
     </row>
-    <row r="82">
+    <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10393-2026</t>
+          <t>A 35058-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46077.30393518518</v>
+        <v>45527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5627,6 +5627,120 @@
         <v>0</v>
       </c>
       <c r="R82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83" ht="15" customHeight="1">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>A 48793-2024</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>A 35054-2024</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>TROSA</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TROSA.xlsx
+++ b/Översikt TROSA.xlsx
@@ -575,7 +575,7 @@
         <v>44944</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>45573.45142361111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44649</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45603</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>44986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44293</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>44721</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44533</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>44480</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44756</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44733</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>44489</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44505</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44582</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44599</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44418</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>45370</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>45537</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>45537</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44937.6478587963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>45628</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44599</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>44916</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45027</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>45344</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>45832.6597337963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>45835.58582175926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44599</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>45925.65525462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>45931.55524305555</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45933</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45244</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45007</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45747</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45537</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>44916</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>45379.46974537037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45373</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45968.64399305556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>45968.65879629629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45978</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45553.40293981481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>45979</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>45979</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>45979</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>45979</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45988.61856481482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45988.48501157408</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45645.43471064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>46041.82646990741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>46041.87569444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45736.93336805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45763.45225694445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44840</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45280</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>46077.29386574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>46077.30393518518</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44285</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44840.4959375</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>46079.67304398148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44680</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>46079.65329861111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45016</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45537</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45007</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45373</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45373</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>45373</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>44937</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>45019</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>45370</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44756</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>45527</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>45593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45527</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
